--- a/data/value_of_passenger_flight.xlsx
+++ b/data/value_of_passenger_flight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F56660-1AC3-40A2-AD3C-8EAA97EFE57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DEF5B8-A824-4CEC-BBE2-2EEA50195288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,13 +366,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -383,7 +383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -394,7 +394,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -405,7 +405,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>

--- a/data/value_of_passenger_flight.xlsx
+++ b/data/value_of_passenger_flight.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DEF5B8-A824-4CEC-BBE2-2EEA50195288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B47717-9A1C-4DAA-AF7B-3943FC9AAA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -363,16 +374,16 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -383,41 +394,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27636</v>
+        <v>32937</v>
       </c>
       <c r="C2">
-        <v>5070</v>
+        <v>6043</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>829</v>
+        <v>989</v>
       </c>
       <c r="C3">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1493</v>
+        <v>1780</v>
       </c>
       <c r="C4">
-        <v>739</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{fd60f3b8-f236-4830-aecc-da0a7fc54679}" enabled="1" method="Standard" siteId="{76f33c20-5979-4408-adf7-8b3c4be95e52}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>